--- a/excel/fon_comp2_eccentricity.xlsx
+++ b/excel/fon_comp2_eccentricity.xlsx
@@ -416,7 +416,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -446,7 +446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -461,7 +461,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B7" t="n">

--- a/excel/fon_comp2_eccentricity.xlsx
+++ b/excel/fon_comp2_eccentricity.xlsx
@@ -386,7 +386,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -401,7 +401,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -416,7 +416,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -446,7 +446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Jelena Jovanovic</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -461,7 +461,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Vladan Devedzic</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B7" t="n">

--- a/excel/fon_comp2_eccentricity.xlsx
+++ b/excel/fon_comp2_eccentricity.xlsx
@@ -386,7 +386,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -431,7 +431,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dragan Djuric</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B5" t="n">
